--- a/2 семестр/Plan.xlsx
+++ b/2 семестр/Plan.xlsx
@@ -949,7 +949,7 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1094,7 @@
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="5"/>
       <c r="F8" s="2"/>
       <c r="J8" s="4"/>
       <c r="K8" t="s">

--- a/2 семестр/Plan.xlsx
+++ b/2 семестр/Plan.xlsx
@@ -949,7 +949,7 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,7 +1035,7 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
       <c r="F4" s="2"/>
       <c r="H4" s="2"/>
       <c r="J4" s="10" t="s">
@@ -1052,7 +1052,7 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="3"/>
       <c r="F5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" t="s">
@@ -1066,7 +1066,7 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="3"/>
       <c r="F6" s="2"/>
       <c r="J6" s="5"/>
       <c r="K6" t="s">
@@ -1094,7 +1094,7 @@
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="3"/>
       <c r="F8" s="2"/>
       <c r="J8" s="4"/>
       <c r="K8" t="s">

--- a/2 семестр/Plan.xlsx
+++ b/2 семестр/Plan.xlsx
@@ -279,7 +279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>ЕтБ</t>
   </si>
@@ -366,13 +366,16 @@
   </si>
   <si>
     <t>ДИПЛОМ</t>
+  </si>
+  <si>
+    <t>Прийти 18.03.2019  зробити лабу з ОБЖ!!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +484,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -612,7 +624,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2"/>
@@ -632,6 +644,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% – Акцентування2" xfId="9" builtinId="34"/>
@@ -949,7 +962,7 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1049,9 @@
         <v>1</v>
       </c>
       <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="J4" s="10" t="s">
         <v>13</v>
@@ -1053,7 +1068,9 @@
         <v>2</v>
       </c>
       <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" t="s">
         <v>8</v>
@@ -1067,7 +1084,9 @@
         <v>3</v>
       </c>
       <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="J6" s="5"/>
       <c r="K6" t="s">
         <v>7</v>
@@ -1080,8 +1099,9 @@
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
       <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="J7" s="3"/>
       <c r="K7" t="s">
         <v>9</v>
@@ -1096,6 +1116,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="J8" s="4"/>
       <c r="K8" t="s">
         <v>10</v>
@@ -1112,6 +1133,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="J9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1124,6 +1146,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="J10" s="9"/>
       <c r="K10" t="s">
         <v>12</v>
@@ -1134,6 +1157,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12">
@@ -1146,6 +1170,9 @@
     <row r="13" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">

--- a/2 семестр/Plan.xlsx
+++ b/2 семестр/Plan.xlsx
@@ -962,7 +962,7 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1051,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="2"/>
       <c r="J4" s="10" t="s">
         <v>13</v>
@@ -1070,7 +1070,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="3"/>
       <c r="J5" s="2"/>
       <c r="K5" t="s">
         <v>8</v>

--- a/2 семестр/Plan.xlsx
+++ b/2 семестр/Plan.xlsx
@@ -962,7 +962,7 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,22 +985,22 @@
         <v>3</v>
       </c>
       <c r="C2" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F2" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>20</v>
@@ -1050,8 +1050,8 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="2"/>
       <c r="J4" s="10" t="s">
         <v>13</v>
@@ -1069,8 +1069,8 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
       <c r="J5" s="2"/>
       <c r="K5" t="s">
         <v>8</v>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="2"/>
       <c r="J6" s="5"/>
       <c r="K6" t="s">
@@ -1100,7 +1100,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="2"/>
       <c r="J7" s="3"/>
       <c r="K7" t="s">

--- a/2 семестр/Plan.xlsx
+++ b/2 семестр/Plan.xlsx
@@ -643,8 +643,8 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="10" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% – Акцентування2" xfId="9" builtinId="34"/>
@@ -962,7 +962,7 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1025,7 @@
       <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="15" t="s">
         <v>28</v>
       </c>
       <c r="O3" s="6" t="s">
@@ -1115,7 +1115,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="2"/>
       <c r="J8" s="4"/>
       <c r="K8" t="s">
@@ -1132,7 +1132,7 @@
       <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="2"/>
       <c r="J9" s="11" t="s">
         <v>11</v>
@@ -1171,7 +1171,7 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="14" t="s">
         <v>29</v>
       </c>
     </row>

--- a/2 семестр/Plan.xlsx
+++ b/2 семестр/Plan.xlsx
@@ -962,7 +962,7 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1145,7 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="2"/>
       <c r="J10" s="9"/>
       <c r="K10" t="s">

--- a/2 семестр/Plan.xlsx
+++ b/2 семестр/Plan.xlsx
@@ -1156,7 +1156,7 @@
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2 семестр/Plan.xlsx
+++ b/2 семестр/Plan.xlsx
@@ -279,7 +279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>ЕтБ</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>Прийти 18.03.2019  зробити лабу з ОБЖ!!!</t>
+  </si>
+  <si>
+    <t>Практична</t>
   </si>
 </sst>
 </file>
@@ -962,7 +965,7 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,6 +1103,9 @@
         <v>4</v>
       </c>
       <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="2"/>
       <c r="J7" s="3"/>
@@ -1115,6 +1121,9 @@
         <v>5</v>
       </c>
       <c r="D8" s="3"/>
+      <c r="E8" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
       <c r="J8" s="4"/>

--- a/2 семестр/Plan.xlsx
+++ b/2 семестр/Plan.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Автор</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="C3" authorId="0" shapeId="0">
@@ -27,10 +27,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -53,10 +52,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -81,7 +79,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -107,7 +105,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -133,7 +131,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -158,7 +156,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -182,7 +180,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -207,7 +205,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -233,7 +231,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -259,7 +257,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -650,17 +648,17 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="20% – Акцентування2" xfId="9" builtinId="34"/>
-    <cellStyle name="20% – Акцентування5" xfId="10" builtinId="46"/>
-    <cellStyle name="20% – Акцентування6" xfId="8" builtinId="50"/>
-    <cellStyle name="60% – Акцентування5" xfId="5" builtinId="48"/>
-    <cellStyle name="Акцентування4" xfId="7" builtinId="41"/>
-    <cellStyle name="Гарний" xfId="4" builtinId="26"/>
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
-    <cellStyle name="Контрольна клітинка" xfId="2" builtinId="23"/>
-    <cellStyle name="Обчислення" xfId="1" builtinId="22"/>
-    <cellStyle name="Поганий" xfId="6" builtinId="27"/>
-    <cellStyle name="Примітка" xfId="3" builtinId="10"/>
+    <cellStyle name="20% - Accent2" xfId="9" builtinId="34"/>
+    <cellStyle name="20% - Accent5" xfId="10" builtinId="46"/>
+    <cellStyle name="20% - Accent6" xfId="8" builtinId="50"/>
+    <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
+    <cellStyle name="Accent4" xfId="7" builtinId="41"/>
+    <cellStyle name="Bad" xfId="6" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -676,7 +674,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -965,7 +963,7 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
       <c r="J5" s="2"/>
@@ -1103,7 +1101,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="3"/>

--- a/2 семестр/Plan.xlsx
+++ b/2 семестр/Plan.xlsx
@@ -963,7 +963,7 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,9 +1049,9 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="2"/>
       <c r="J4" s="10" t="s">
@@ -1068,9 +1068,9 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="J5" s="2"/>
       <c r="K5" t="s">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="2"/>
       <c r="J6" s="5"/>
       <c r="K6" t="s">
@@ -1104,7 +1104,7 @@
       <c r="E7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="2"/>
       <c r="J7" s="3"/>
       <c r="K7" t="s">
@@ -1122,7 +1122,7 @@
       <c r="E8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="2"/>
       <c r="J8" s="4"/>
       <c r="K8" t="s">
@@ -1139,7 +1139,7 @@
       <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="2"/>
       <c r="J9" s="11" t="s">
         <v>11</v>
@@ -1152,7 +1152,7 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="2"/>
       <c r="J10" s="9"/>
       <c r="K10" t="s">
@@ -1163,7 +1163,7 @@
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2 семестр/Plan.xlsx
+++ b/2 семестр/Plan.xlsx
@@ -965,7 +965,7 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="2"/>
       <c r="J4" s="10" t="s">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="J5" s="2"/>
       <c r="K5" t="s">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="2"/>
       <c r="J6" s="5"/>
       <c r="K6" t="s">
@@ -1106,7 +1106,7 @@
       <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="2"/>
       <c r="J7" s="3"/>
       <c r="K7" t="s">
@@ -1124,7 +1124,7 @@
       <c r="E8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="2"/>
       <c r="J8" s="4"/>
       <c r="K8" t="s">
@@ -1141,7 +1141,7 @@
       <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="2"/>
       <c r="J9" s="11" t="s">
         <v>11</v>
@@ -1154,7 +1154,7 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="2"/>
       <c r="J10" s="9"/>
       <c r="K10" t="s">
@@ -1165,7 +1165,7 @@
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2 семестр/Plan.xlsx
+++ b/2 семестр/Plan.xlsx
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>ЕтБ</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>Практична</t>
+  </si>
+  <si>
+    <t>Сходити</t>
   </si>
 </sst>
 </file>
@@ -963,7 +966,7 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,6 +1052,9 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
       <c r="F4" s="4"/>
@@ -1087,7 +1093,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="3"/>
       <c r="J6" s="5"/>
       <c r="K6" t="s">
         <v>7</v>
@@ -1105,7 +1111,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" t="s">
         <v>9</v>
@@ -1123,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="3"/>
       <c r="J8" s="4"/>
       <c r="K8" t="s">
         <v>10</v>
@@ -1136,7 +1142,7 @@
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="4"/>

--- a/2 семестр/Plan.xlsx
+++ b/2 семестр/Plan.xlsx
@@ -628,7 +628,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2"/>
@@ -649,6 +649,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent2" xfId="9" builtinId="34"/>
@@ -966,7 +967,7 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,7 +1108,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F7" s="4"/>

--- a/2 семестр/Plan.xlsx
+++ b/2 семестр/Plan.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Автор</author>
   </authors>
   <commentList>
     <comment ref="C3" authorId="0" shapeId="0">
@@ -29,7 +29,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -131,7 +131,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -156,7 +156,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -180,7 +180,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -205,7 +205,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -257,7 +257,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>ЕтБ</t>
   </si>
@@ -366,13 +366,13 @@
     <t>ДИПЛОМ</t>
   </si>
   <si>
-    <t>Прийти 18.03.2019  зробити лабу з ОБЖ!!!</t>
-  </si>
-  <si>
     <t>Практична</t>
   </si>
   <si>
-    <t>Сходити</t>
+    <t>Прийти 01.04.2019  зробити лабу з ОБЖ!!!</t>
+  </si>
+  <si>
+    <t>Презентація</t>
   </si>
 </sst>
 </file>
@@ -652,17 +652,17 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="20% - Accent2" xfId="9" builtinId="34"/>
-    <cellStyle name="20% - Accent5" xfId="10" builtinId="46"/>
-    <cellStyle name="20% - Accent6" xfId="8" builtinId="50"/>
-    <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
-    <cellStyle name="Accent4" xfId="7" builtinId="41"/>
-    <cellStyle name="Bad" xfId="6" builtinId="27"/>
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
-    <cellStyle name="Good" xfId="4" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
+    <cellStyle name="20% – Акцентування2" xfId="9" builtinId="34"/>
+    <cellStyle name="20% – Акцентування5" xfId="10" builtinId="46"/>
+    <cellStyle name="20% – Акцентування6" xfId="8" builtinId="50"/>
+    <cellStyle name="60% – Акцентування5" xfId="5" builtinId="48"/>
+    <cellStyle name="Акцентування4" xfId="7" builtinId="41"/>
+    <cellStyle name="Гарний" xfId="4" builtinId="26"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Контрольна клітинка" xfId="2" builtinId="23"/>
+    <cellStyle name="Обчислення" xfId="1" builtinId="22"/>
+    <cellStyle name="Поганий" xfId="6" builtinId="27"/>
+    <cellStyle name="Примітка" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -678,7 +678,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -966,15 +966,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="14" max="14" width="10.140625" customWidth="1"/>
     <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -1053,7 +1053,7 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="4"/>
@@ -1075,6 +1075,9 @@
       <c r="B5">
         <v>2</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1091,10 +1094,10 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="2"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="4"/>
       <c r="J6" s="5"/>
       <c r="K6" t="s">
         <v>7</v>
@@ -1107,12 +1110,12 @@
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="4"/>
       <c r="J7" s="3"/>
       <c r="K7" t="s">
         <v>9</v>
@@ -1125,12 +1128,12 @@
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" t="s">
         <v>10</v>
@@ -1180,13 +1183,14 @@
       <c r="F12" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">

--- a/2 семестр/Plan.xlsx
+++ b/2 семестр/Plan.xlsx
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,8 +976,10 @@
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
@@ -1180,7 +1182,7 @@
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J12" s="14"/>

--- a/2 семестр/Plan.xlsx
+++ b/2 семестр/Plan.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Автор</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="C3" authorId="0" shapeId="0">
@@ -29,7 +29,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -131,7 +131,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -156,7 +156,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -180,7 +180,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -205,7 +205,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -257,7 +257,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -628,7 +628,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2"/>
@@ -649,20 +649,19 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="20% – Акцентування2" xfId="9" builtinId="34"/>
-    <cellStyle name="20% – Акцентування5" xfId="10" builtinId="46"/>
-    <cellStyle name="20% – Акцентування6" xfId="8" builtinId="50"/>
-    <cellStyle name="60% – Акцентування5" xfId="5" builtinId="48"/>
-    <cellStyle name="Акцентування4" xfId="7" builtinId="41"/>
-    <cellStyle name="Гарний" xfId="4" builtinId="26"/>
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
-    <cellStyle name="Контрольна клітинка" xfId="2" builtinId="23"/>
-    <cellStyle name="Обчислення" xfId="1" builtinId="22"/>
-    <cellStyle name="Поганий" xfId="6" builtinId="27"/>
-    <cellStyle name="Примітка" xfId="3" builtinId="10"/>
+    <cellStyle name="20% - Accent2" xfId="9" builtinId="34"/>
+    <cellStyle name="20% - Accent5" xfId="10" builtinId="46"/>
+    <cellStyle name="20% - Accent6" xfId="8" builtinId="50"/>
+    <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
+    <cellStyle name="Accent4" xfId="7" builtinId="41"/>
+    <cellStyle name="Bad" xfId="6" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -678,7 +677,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -967,7 +966,7 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1058,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="2"/>
@@ -1113,7 +1112,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="4"/>
@@ -1131,7 +1130,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="4"/>

--- a/2 семестр/Plan.xlsx
+++ b/2 семестр/Plan.xlsx
@@ -369,10 +369,10 @@
     <t>Практична</t>
   </si>
   <si>
-    <t>Прийти 01.04.2019  зробити лабу з ОБЖ!!!</t>
-  </si>
-  <si>
     <t>Презентація</t>
+  </si>
+  <si>
+    <t>Не буду робити</t>
   </si>
 </sst>
 </file>
@@ -628,7 +628,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2"/>
@@ -649,6 +649,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="8" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - Accent2" xfId="9" builtinId="34"/>
@@ -966,7 +967,7 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,7 +1013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
@@ -1050,18 +1051,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="5"/>
       <c r="J4" s="10" t="s">
         <v>13</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1096,7 +1097,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="J6" s="5"/>
@@ -1151,7 +1152,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="16"/>
       <c r="J9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1164,7 +1165,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="16"/>
       <c r="J10" s="9"/>
       <c r="K10" t="s">
         <v>12</v>
@@ -1175,7 +1176,11 @@
         <v>8</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="2:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12">
@@ -1190,9 +1195,7 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="J13" s="14" t="s">
-        <v>30</v>
-      </c>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14">

--- a/2 семестр/Plan.xlsx
+++ b/2 семестр/Plan.xlsx
@@ -967,7 +967,7 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1077,7 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="4"/>
@@ -1152,7 +1152,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="2"/>
       <c r="J9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="16"/>
+      <c r="G11" s="2"/>
       <c r="J11" s="16"/>
       <c r="K11" t="s">
         <v>31</v>

--- a/2 семестр/Plan.xlsx
+++ b/2 семестр/Plan.xlsx
@@ -967,7 +967,7 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1077,7 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="4"/>
@@ -1148,7 +1148,7 @@
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="4"/>
@@ -1182,16 +1182,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="2:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
